--- a/rhla_analysis/rhla1_6_exp_result/result.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1100 +448,550 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>k=0标准差</t>
+          <t>k=0 Standard Deviation</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.029749755096441</v>
+        <v>6.24421358448521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>k=0中位数</t>
+          <t>k=0 Median</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.35298610557825</v>
+        <v>14.85118768414855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>k=0平均值</t>
+          <t>k=0 Mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.55220923236968</v>
+        <v>14.54246393076945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>k=0去出最大值最小值平均数</t>
+          <t>k=0 Mean without extremes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.67408575576667</v>
+        <v>14.69458943541538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>k=0ex_rs平均值</t>
+          <t>k=0 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1222506393861893</v>
+        <v>0.07270875763747453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>k=1标准差</t>
+          <t>k=1 Standard Deviation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.261601506442523</v>
+        <v>3.307780451445088</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>k=1中位数</t>
+          <t>k=1 Median</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.56255862796635</v>
+        <v>11.50103624215161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>k=1平均值</t>
+          <t>k=1 Mean</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.84882351977259</v>
+        <v>12.80155305402354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>k=1去出最大值最小值平均数</t>
+          <t>k=1 Mean without extremes</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.55968756627955</v>
+        <v>12.52515826241824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>k=1ex_rs平均值</t>
+          <t>k=1 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1345694799658994</v>
+        <v>0.08584521384928717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>k=2标准差</t>
+          <t>k=2 Standard Deviation</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.082965719535817</v>
+        <v>7.100853932110835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>k=2中位数</t>
+          <t>k=2 Median</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.65808722520989</v>
+        <v>12.67911406372284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>k=2平均值</t>
+          <t>k=2 Mean</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.68077619134309</v>
+        <v>14.06502727894288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>k=2去出最大值最小值平均数</t>
+          <t>k=2 Mean without extremes</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.82819390359966</v>
+        <v>12.79079907530996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k=2ex_rs平均值</t>
+          <t>k=2 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1447996589940324</v>
+        <v>0.09568906992532247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>k=3标准差</t>
+          <t>k=3 Standard Deviation</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.466691159979734</v>
+        <v>4.401414915317672</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>k=3中位数</t>
+          <t>k=3 Median</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.45275132443802</v>
+        <v>17.98122424114866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>k=3平均值</t>
+          <t>k=3 Mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.16991180992616</v>
+        <v>17.2547969129216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>k=3去出最大值最小值平均数</t>
+          <t>k=3 Mean without extremes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.38047351624649</v>
+        <v>17.30482529966152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>k=3ex_rs平均值</t>
+          <t>k=3 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1556265984654732</v>
+        <v>0.1071283095723014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>k=4标准差</t>
+          <t>k=4 Standard Deviation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.714948546047254</v>
+        <v>6.726777151794539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>k=4中位数</t>
+          <t>k=4 Median</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22.22967064202236</v>
+        <v>21.26232851814223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>k=4平均值</t>
+          <t>k=4 Mean</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.40129712657717</v>
+        <v>21.65072836858544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>k=4去出最大值最小值平均数</t>
+          <t>k=4 Mean without extremes</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.43408375056864</v>
+        <v>21.84837832261181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>k=4ex_rs平均值</t>
+          <t>k=4 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1747229326513214</v>
+        <v>0.1250169721656483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>k=5标准差</t>
+          <t>k=5 Standard Deviation</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.68434518826106</v>
+        <v>19.90736034570202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>k=5中位数</t>
+          <t>k=5 Median</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.36857959590458</v>
+        <v>24.22763462904764</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>k=5平均值</t>
+          <t>k=5 Mean</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.84599095860425</v>
+        <v>33.54664338817768</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>k=5去出最大值最小值平均数</t>
+          <t>k=5 Mean without extremes</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.18146102827112</v>
+        <v>31.23089774623359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>k=5ex_rs平均值</t>
+          <t>k=5 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1916453537936914</v>
+        <v>0.1380176510522743</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>k=6标准差</t>
+          <t>k=6 Standard Deviation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.89283532261934</v>
+        <v>17.41965579512268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>k=6中位数</t>
+          <t>k=6 Median</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.93404976709574</v>
+        <v>40.22951565373077</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>k=6平均值</t>
+          <t>k=6 Mean</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.34236273714112</v>
+        <v>41.27967153854672</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>k=6去出最大值最小值平均数</t>
+          <t>k=6 Mean without extremes</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>38.24262169619114</v>
+        <v>41.04463909498315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>k=6ex_rs平均值</t>
+          <t>k=6 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2051150895140665</v>
+        <v>0.1491174473862865</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>k=7标准差</t>
+          <t>k=7 Standard Deviation</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.00266057082612</v>
+        <v>18.69744355274692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>k=7中位数</t>
+          <t>k=7 Median</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.34398213417047</v>
+        <v>39.09165303989262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>k=7平均值</t>
+          <t>k=7 Mean</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>44.4237325200704</v>
+        <v>43.9851058597409</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>k=7去出最大值最小值平均数</t>
+          <t>k=7 Mean without extremes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.70655180277466</v>
+        <v>40.68557526881078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>k=7ex_rs平均值</t>
+          <t>k=7 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2231031543052003</v>
+        <v>0.1691446028513238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>k=8标准差</t>
+          <t>k=8 Standard Deviation</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40.277609874065</v>
+        <v>32.55188730071655</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>k=8中位数</t>
+          <t>k=8 Median</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.78580262049221</v>
+        <v>116.6908685333599</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>k=8平均值</t>
+          <t>k=8 Mean</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.2089334399761</v>
+        <v>107.1980707251655</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>k=8去出最大值最小值平均数</t>
+          <t>k=8 Mean without extremes</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.60050000551934</v>
+        <v>108.4420643552995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>k=8ex_rs平均值</t>
+          <t>k=8 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2380221653878943</v>
+        <v>0.1849966055668703</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>k=9标准差</t>
+          <t>k=9 Standard Deviation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>44.32669365522604</v>
+        <v>60.634526031746</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>k=9中位数</t>
+          <t>k=9 Median</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>96.26521671083594</v>
+        <v>121.3823804956709</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>k=9平均值</t>
+          <t>k=9 Mean</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>109.327390725649</v>
+        <v>119.3024903262356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>k=9去出最大值最小值平均数</t>
+          <t>k=9 Mean without extremes</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>102.4741806616638</v>
+        <v>107.770114511426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>k=9ex_rs平均值</t>
+          <t>k=9 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2650468883205456</v>
+        <v>0.2100475220638153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>k=10标准差</t>
+          <t>k=10 Standard Deviation</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>64.24558312942942</v>
+        <v>46.85466624036425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>k=10中位数</t>
+          <t>k=10 Median</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>110.3872698551923</v>
+        <v>129.6774211888612</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>k=10平均值</t>
+          <t>k=10 Mean</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>133.6802545683002</v>
+        <v>148.7749705399014</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>k=10去出最大值最小值平均数</t>
+          <t>k=10 Mean without extremes</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>130.466817430915</v>
+        <v>144.4976676481725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>k=10ex_rs平均值</t>
+          <t>k=10 Extrema RS Mean</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2855924978687127</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>k=0 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6.24421358448523</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>k=0 Median</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>14.85118768414852</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>k=0 Mean</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>14.54246393076945</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>k=0 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>14.69458943541537</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>k=0 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.07270875763747453</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>k=1 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3.307780451445105</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>k=1 Median</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>11.50103624215165</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>k=1 Mean</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>12.80155305402357</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>k=1 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>12.52515826241825</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>k=1 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.08584521384928717</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>k=2 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>7.100853932110807</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>k=2 Median</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>12.67911406372283</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>k=2 Mean</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>14.06502727894291</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>k=2 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>12.79079907531002</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>k=2 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.09568906992532247</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>k=3 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4.401414915317666</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>k=3 Median</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>17.98122424114869</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>k=3 Mean</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17.25479691292162</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>k=3 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>17.30482529966152</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>k=3 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1071283095723014</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>k=4 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6.72677715179459</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>k=4 Median</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>21.26232851814217</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>k=4 Mean</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>21.65072836858543</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>k=4 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>21.84837832261179</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>k=4 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.1250169721656483</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>k=5 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>19.90736034570199</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>k=5 Median</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>24.2276346290477</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>k=5 Mean</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>33.54664338817771</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>k=5 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>31.23089774623366</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>k=5 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.1380176510522743</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>k=6 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>17.41965579512253</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>k=6 Median</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>40.22951565373084</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>k=6 Mean</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>41.27967153854662</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>k=6 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>41.04463909498308</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>k=6 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.1491174473862865</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>k=7 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>18.69744355274682</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>k=7 Median</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>39.09165303989262</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>k=7 Mean</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>43.9851058597409</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>k=7 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>40.68557526881087</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>k=7 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1691446028513238</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>k=8 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>32.55188730071667</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>k=8 Median</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>116.6908685333599</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>k=8 Mean</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>107.1980707251655</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>k=8 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>108.4420643552994</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>k=8 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.1849966055668703</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>k=9 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>60.63452603174562</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>k=9 Median</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>121.3823804956697</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>k=9 Mean</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>119.3024903262353</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>k=9 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>107.7701145114258</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>k=9 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.2100475220638153</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>k=10 Standard Deviation</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>46.85466624036496</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>k=10 Median</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>129.6774211888616</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>k=10 Mean</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>148.7749705399017</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>k=10 Mean without extremes</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>144.4976676481724</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>k=10 Extrema RS Mean</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
         <v>0.2296673455532926</v>
       </c>
     </row>
